--- a/Problems 1_KRYUKOV SAVELIY 212.xlsx
+++ b/Problems 1_KRYUKOV SAVELIY 212.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Saveliy/Desktop/DBMS_MIPT/DBMS_MIPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE3F96E-764A-B145-A5BD-99BF761D8167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71468F8B-CCE3-0548-BFCD-39B78C9448FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="212">
   <si>
     <t>}</t>
   </si>
@@ -655,6 +655,12 @@
   </si>
   <si>
     <t>ВСЕ ОТВЕТЫ И ВЫБРАННЫЕ ВАРИАНТЫ ОТМЕЧЕНЫ КРАСНЫМ ЦВЕТОМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Пустое отношение</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
-    <numFmt numFmtId="169" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -824,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -844,9 +850,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -856,8 +860,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,18 +869,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1374,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C63A9C-52B5-48DD-AFC1-6117206D7AE1}">
   <dimension ref="A1:AR227"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1393,16 +1397,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="34" x14ac:dyDescent="0.4">
-      <c r="T1" s="35" t="s">
+      <c r="T1" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="34">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>100</v>
+      </c>
+      <c r="T2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -1693,7 +1700,7 @@
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A18" s="34">
+      <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1701,7 +1708,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" ht="23" x14ac:dyDescent="0.3">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>174</v>
       </c>
       <c r="C19" s="6"/>
@@ -1716,10 +1723,10 @@
       <c r="I21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>2</v>
       </c>
       <c r="N21" s="8">
@@ -1728,10 +1735,10 @@
       <c r="O21" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="Q21" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="15">
         <v>89</v>
       </c>
       <c r="T21" s="8">
@@ -1748,10 +1755,10 @@
       <c r="I22" s="7">
         <v>8</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>7</v>
       </c>
       <c r="N22" s="8">
@@ -1760,10 +1767,10 @@
       <c r="O22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="16" t="s">
+      <c r="Q22" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R22" s="15">
         <v>78</v>
       </c>
       <c r="T22" s="8" t="s">
@@ -1780,10 +1787,10 @@
       <c r="I23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>89</v>
       </c>
       <c r="N23" s="8">
@@ -1792,10 +1799,10 @@
       <c r="O23" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="Q23" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23" s="15">
         <v>5</v>
       </c>
       <c r="T23" s="8">
@@ -1812,10 +1819,10 @@
       <c r="O24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="R24" s="16">
+      <c r="R24" s="15">
         <v>890</v>
       </c>
     </row>
@@ -1831,7 +1838,7 @@
       <c r="C27" s="2"/>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+      <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1851,10 +1858,10 @@
       <c r="L30" s="7">
         <v>7</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="P30" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q30" s="16">
+      <c r="Q30" s="15">
         <v>15</v>
       </c>
     </row>
@@ -1880,10 +1887,10 @@
       <c r="L31" s="7">
         <v>15</v>
       </c>
-      <c r="P31" s="16" t="s">
+      <c r="P31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="15">
         <v>3</v>
       </c>
     </row>
@@ -1900,22 +1907,22 @@
       <c r="L32" s="7">
         <v>14</v>
       </c>
-      <c r="P32" s="16" t="s">
+      <c r="P32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q32" s="16">
+      <c r="Q32" s="15">
         <v>34</v>
       </c>
-      <c r="Z32" s="16" t="s">
+      <c r="Z32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AA32" s="16">
+      <c r="AA32" s="15">
         <v>34</v>
       </c>
-      <c r="AE32" s="16" t="s">
+      <c r="AE32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AF32" s="16">
+      <c r="AF32" s="15">
         <v>7</v>
       </c>
     </row>
@@ -1935,37 +1942,37 @@
       <c r="N33" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="P33" s="16" t="s">
+      <c r="P33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="Q33" s="16">
+      <c r="Q33" s="15">
         <v>8</v>
       </c>
       <c r="S33" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="U33" s="16" t="s">
+      <c r="U33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="V33" s="16">
+      <c r="V33" s="15">
         <v>15</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="Z33" s="16" t="s">
+      <c r="Z33" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="AA33" s="16">
+      <c r="AA33" s="15">
         <v>8</v>
       </c>
       <c r="AC33" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="AE33" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="16">
+      <c r="AE33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="15">
         <v>14</v>
       </c>
     </row>
@@ -1976,30 +1983,30 @@
       <c r="I34" s="7">
         <v>2</v>
       </c>
-      <c r="P34" s="16" t="s">
+      <c r="P34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q34" s="16">
-        <v>2</v>
-      </c>
-      <c r="U34" s="16" t="s">
+      <c r="Q34" s="15">
+        <v>2</v>
+      </c>
+      <c r="U34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="V34" s="16">
+      <c r="V34" s="15">
         <v>3</v>
       </c>
-      <c r="Z34" s="16" t="s">
+      <c r="Z34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="AA34" s="16">
+      <c r="AA34" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="P35" s="16" t="s">
+      <c r="P35" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="16">
+      <c r="Q35" s="15">
         <v>7</v>
       </c>
     </row>
@@ -2007,43 +2014,33 @@
       <c r="B36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="P36" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="16">
+      <c r="P36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="15">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
-    </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A39" s="34">
+      <c r="A39">
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P39" s="16" t="s">
+      <c r="P39" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="Q39" s="16" t="s">
+      <c r="Q39" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R39" s="16">
-        <v>1</v>
-      </c>
-      <c r="U39" s="16" t="s">
+      <c r="R39" s="15">
+        <v>1</v>
+      </c>
+      <c r="U39" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V39" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2057,19 +2054,19 @@
       <c r="K40" s="7">
         <v>1</v>
       </c>
-      <c r="P40" s="16" t="s">
+      <c r="P40" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Q40" s="16" t="s">
+      <c r="Q40" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="16">
-        <v>1</v>
-      </c>
-      <c r="U40" s="16" t="s">
+      <c r="R40" s="15">
+        <v>1</v>
+      </c>
+      <c r="U40" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V40" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2095,19 +2092,19 @@
       <c r="N41" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="P41" s="16" t="s">
+      <c r="P41" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q41" s="16" t="s">
+      <c r="Q41" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R41" s="16">
-        <v>1</v>
-      </c>
-      <c r="U41" s="16" t="s">
+      <c r="R41" s="15">
+        <v>1</v>
+      </c>
+      <c r="U41" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41" s="15">
         <v>1</v>
       </c>
     </row>
@@ -2121,36 +2118,36 @@
       <c r="K42" s="7">
         <v>3</v>
       </c>
-      <c r="P42" s="16" t="s">
+      <c r="P42" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="Q42" s="16" t="s">
+      <c r="Q42" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R42" s="16">
-        <v>2</v>
-      </c>
-      <c r="U42" s="16" t="s">
+      <c r="R42" s="15">
+        <v>2</v>
+      </c>
+      <c r="U42" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="P43" s="16" t="s">
+      <c r="P43" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Q43" s="16" t="s">
+      <c r="Q43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="16">
-        <v>2</v>
-      </c>
-      <c r="U43" s="16" t="s">
+      <c r="R43" s="15">
+        <v>2</v>
+      </c>
+      <c r="U43" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2158,36 +2155,36 @@
       <c r="B44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P44" s="16" t="s">
+      <c r="P44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q44" s="16" t="s">
+      <c r="Q44" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R44" s="16">
-        <v>2</v>
-      </c>
-      <c r="U44" s="16" t="s">
+      <c r="R44" s="15">
+        <v>2</v>
+      </c>
+      <c r="U44" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="P45" s="16" t="s">
+      <c r="P45" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="Q45" s="16" t="s">
+      <c r="Q45" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="R45" s="16">
+      <c r="R45" s="15">
         <v>3</v>
       </c>
-      <c r="U45" s="16" t="s">
+      <c r="U45" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="V45" s="16">
+      <c r="V45" s="15">
         <v>3</v>
       </c>
     </row>
@@ -2195,46 +2192,46 @@
       <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P46" s="16" t="s">
+      <c r="P46" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="Q46" s="16" t="s">
+      <c r="Q46" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="16">
+      <c r="R46" s="15">
         <v>3</v>
       </c>
-      <c r="U46" s="16" t="s">
+      <c r="U46" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="V46" s="16">
+      <c r="V46" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="P47" s="16" t="s">
+      <c r="P47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q47" s="16" t="s">
+      <c r="Q47" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R47" s="16">
+      <c r="R47" s="15">
         <v>3</v>
       </c>
-      <c r="U47" s="16" t="s">
+      <c r="U47" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="V47" s="16">
+      <c r="V47" s="15">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="U48" s="17" t="s">
+      <c r="U48" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
+      <c r="A49">
         <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -2254,16 +2251,16 @@
       <c r="L50" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q50" s="19" t="s">
+      <c r="Q50" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="R50" s="19" t="s">
+      <c r="R50" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="19" t="s">
+      <c r="S50" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="T50" s="19" t="s">
+      <c r="T50" s="17" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2292,16 +2289,16 @@
       <c r="O51" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="Q51" s="20">
+      <c r="Q51" s="18">
         <v>45544</v>
       </c>
-      <c r="R51" s="16" t="s">
+      <c r="R51" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="S51" s="16">
+      <c r="S51" s="15">
         <v>9</v>
       </c>
-      <c r="T51" s="16" t="s">
+      <c r="T51" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2318,16 +2315,16 @@
       <c r="L52" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q52" s="20">
+      <c r="Q52" s="18">
         <v>45534</v>
       </c>
-      <c r="R52" s="16" t="s">
+      <c r="R52" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="S52" s="16">
+      <c r="S52" s="15">
         <v>9</v>
       </c>
-      <c r="T52" s="16" t="s">
+      <c r="T52" s="15" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2340,7 +2337,7 @@
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="34">
+      <c r="A56">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2357,6 +2354,7 @@
       <c r="K57" s="7">
         <v>11</v>
       </c>
+      <c r="Q57" s="33"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H58" s="7">
@@ -2368,6 +2366,7 @@
       <c r="K58" s="7">
         <v>3</v>
       </c>
+      <c r="Q58" s="33"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F59" t="s">
@@ -2388,9 +2387,7 @@
       <c r="K59" s="7">
         <v>87</v>
       </c>
-      <c r="Q59" s="16">
-        <v>12</v>
-      </c>
+      <c r="Q59" s="33"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H60" s="7">
@@ -2405,8 +2402,8 @@
       <c r="O60" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="Q60" s="16">
-        <v>56</v>
+      <c r="Q60" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -2419,9 +2416,6 @@
       <c r="K61" s="7">
         <v>5</v>
       </c>
-      <c r="Q61" s="16">
-        <v>5</v>
-      </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="H62" s="7">
@@ -2435,7 +2429,7 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A64" s="34">
+      <c r="A64">
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2448,7 +2442,7 @@
       </c>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A67" s="34">
+      <c r="A67">
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2523,10 +2517,10 @@
       <c r="G74" t="s">
         <v>31</v>
       </c>
-      <c r="I74" s="16">
+      <c r="I74" s="15">
         <v>67</v>
       </c>
-      <c r="J74" s="16">
+      <c r="J74" s="15">
         <v>67</v>
       </c>
       <c r="L74" s="7">
@@ -2537,10 +2531,10 @@
       </c>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="I75" s="16">
-        <v>2</v>
-      </c>
-      <c r="J75" s="16">
+      <c r="I75" s="15">
+        <v>2</v>
+      </c>
+      <c r="J75" s="15">
         <v>7</v>
       </c>
       <c r="L75" s="7">
@@ -2551,10 +2545,10 @@
       </c>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="I76" s="16">
+      <c r="I76" s="15">
         <v>87</v>
       </c>
-      <c r="J76" s="16">
+      <c r="J76" s="15">
         <v>65</v>
       </c>
       <c r="L76" s="7">
@@ -2565,10 +2559,10 @@
       </c>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="I77" s="16">
-        <v>2</v>
-      </c>
-      <c r="J77" s="16">
+      <c r="I77" s="15">
+        <v>2</v>
+      </c>
+      <c r="J77" s="15">
         <v>7</v>
       </c>
       <c r="L77" s="7">
@@ -2712,7 +2706,7 @@
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" s="34">
+      <c r="A89">
         <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -2725,7 +2719,7 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H91" s="22" t="s">
+      <c r="H91" s="20" t="s">
         <v>176</v>
       </c>
       <c r="I91" s="9" t="s">
@@ -2748,7 +2742,7 @@
       <c r="B92" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H92" s="23" t="s">
+      <c r="H92" s="21" t="s">
         <v>177</v>
       </c>
       <c r="I92" s="9" t="s">
@@ -2766,10 +2760,10 @@
       <c r="M92" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O92" s="18"/>
+      <c r="O92" s="16"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H93" s="24">
+      <c r="H93" s="22">
         <v>311</v>
       </c>
       <c r="I93" s="7" t="s">
@@ -2790,7 +2784,7 @@
       <c r="O93" s="5"/>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H94" s="24">
+      <c r="H94" s="22">
         <v>312</v>
       </c>
       <c r="I94" s="7" t="s">
@@ -2811,7 +2805,7 @@
       <c r="O94" s="5"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H95" s="24">
+      <c r="H95" s="22">
         <v>313</v>
       </c>
       <c r="I95" s="7" t="s">
@@ -2831,7 +2825,7 @@
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H96" s="24">
+      <c r="H96" s="22">
         <v>314</v>
       </c>
       <c r="I96" s="7" t="s">
@@ -2851,7 +2845,7 @@
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H97" s="24">
+      <c r="H97" s="22">
         <v>315</v>
       </c>
       <c r="I97" s="7" t="s">
@@ -2871,7 +2865,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="34">
+      <c r="A100">
         <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3066,7 +3060,7 @@
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="23" t="s">
         <v>180</v>
       </c>
       <c r="H113" s="7" t="s">
@@ -3328,7 +3322,7 @@
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A129" s="26" t="s">
+      <c r="A129" s="24" t="s">
         <v>202</v>
       </c>
       <c r="H129" s="7" t="s">
@@ -3354,7 +3348,7 @@
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A130" s="33" t="s">
+      <c r="A130" s="31" t="s">
         <v>203</v>
       </c>
       <c r="H130" s="7" t="s">
@@ -3380,7 +3374,7 @@
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A131" s="33" t="s">
+      <c r="A131" s="31" t="s">
         <v>204</v>
       </c>
       <c r="H131" s="7" t="s">
@@ -3578,7 +3572,7 @@
       <c r="H146" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K146" s="23" t="s">
+      <c r="K146" s="21" t="s">
         <v>145</v>
       </c>
     </row>
@@ -3586,7 +3580,7 @@
       <c r="H147" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K147" s="16" t="s">
+      <c r="K147" s="15" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3603,7 +3597,7 @@
       <c r="J148" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="K148" s="16" t="s">
+      <c r="K148" s="15" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3611,27 +3605,27 @@
       <c r="H149" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K149" s="16" t="s">
+      <c r="K149" s="15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="150" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="K150" s="16" t="s">
+      <c r="K150" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="X150" s="28" t="s">
+      <c r="X150" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="Y150" s="28" t="s">
+      <c r="Y150" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="Z150" s="28" t="s">
+      <c r="Z150" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="AA150" s="28" t="s">
+      <c r="AA150" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AB150" s="28" t="s">
+      <c r="AB150" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3642,34 +3636,34 @@
       <c r="B151" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="X151" s="29" t="s">
+      <c r="X151" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="Y151" s="29">
+      <c r="Y151" s="27">
         <v>15000</v>
       </c>
-      <c r="Z151" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA151" s="29" t="s">
+      <c r="Z151" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA151" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AB151" s="29" t="s">
+      <c r="AB151" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AN151" s="28" t="s">
+      <c r="AN151" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AO151" s="28" t="s">
+      <c r="AO151" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="AP151" s="28" t="s">
+      <c r="AP151" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="AQ151" s="28" t="s">
+      <c r="AQ151" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AR151" s="28" t="s">
+      <c r="AR151" s="26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3701,49 +3695,49 @@
       <c r="T152" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="X152" s="29" t="s">
+      <c r="X152" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="Y152" s="29">
+      <c r="Y152" s="27">
         <v>30000</v>
       </c>
-      <c r="Z152" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA152" s="29" t="s">
+      <c r="Z152" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA152" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AB152" s="29" t="s">
+      <c r="AB152" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AF152" s="28" t="s">
+      <c r="AF152" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="AG152" s="28" t="s">
+      <c r="AG152" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="AH152" s="28" t="s">
+      <c r="AH152" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="AI152" s="28" t="s">
+      <c r="AI152" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AJ152" s="28" t="s">
+      <c r="AJ152" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AN152" s="29" t="s">
+      <c r="AN152" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AO152" s="29" t="s">
+      <c r="AO152" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP152" s="29">
-        <v>2</v>
-      </c>
-      <c r="AQ152" s="29" t="s">
+      <c r="AP152" s="27">
+        <v>2</v>
+      </c>
+      <c r="AQ152" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AR152" s="29" t="s">
+      <c r="AR152" s="27" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3775,49 +3769,49 @@
       <c r="T153" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="X153" s="29" t="s">
+      <c r="X153" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Y153" s="29">
+      <c r="Y153" s="27">
         <v>60000</v>
       </c>
-      <c r="Z153" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA153" s="29" t="s">
+      <c r="Z153" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA153" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AB153" s="29" t="s">
+      <c r="AB153" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AF153" s="29" t="s">
+      <c r="AF153" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AG153" s="29" t="s">
+      <c r="AG153" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AH153" s="29">
-        <v>2</v>
-      </c>
-      <c r="AI153" s="29" t="s">
+      <c r="AH153" s="27">
+        <v>2</v>
+      </c>
+      <c r="AI153" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AJ153" s="29" t="s">
+      <c r="AJ153" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AN153" s="29" t="s">
+      <c r="AN153" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AO153" s="29" t="s">
+      <c r="AO153" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP153" s="29">
-        <v>1</v>
-      </c>
-      <c r="AQ153" s="29" t="s">
+      <c r="AP153" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ153" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AR153" s="29" t="s">
+      <c r="AR153" s="27" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3861,52 +3855,52 @@
       <c r="T154" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="X154" s="29" t="s">
+      <c r="X154" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Y154" s="29">
+      <c r="Y154" s="27">
         <v>17000</v>
       </c>
-      <c r="Z154" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA154" s="29" t="s">
+      <c r="Z154" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA154" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AB154" s="29" t="s">
+      <c r="AB154" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AD154" s="27" t="s">
+      <c r="AD154" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="AF154" s="29" t="s">
+      <c r="AF154" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AG154" s="29" t="s">
+      <c r="AG154" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AH154" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI154" s="29" t="s">
+      <c r="AH154" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI154" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AJ154" s="29" t="s">
+      <c r="AJ154" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AN154" s="29" t="s">
+      <c r="AN154" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AO154" s="29" t="s">
+      <c r="AO154" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP154" s="29">
-        <v>2</v>
-      </c>
-      <c r="AQ154" s="29" t="s">
+      <c r="AP154" s="27">
+        <v>2</v>
+      </c>
+      <c r="AQ154" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AR154" s="29" t="s">
+      <c r="AR154" s="27" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3929,55 +3923,55 @@
       <c r="O155" s="7">
         <v>2</v>
       </c>
-      <c r="V155" s="27" t="s">
+      <c r="V155" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="X155" s="29" t="s">
+      <c r="X155" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="Y155" s="29">
+      <c r="Y155" s="27">
         <v>23000</v>
       </c>
-      <c r="Z155" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA155" s="29" t="s">
+      <c r="Z155" s="27">
+        <v>1</v>
+      </c>
+      <c r="AA155" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AB155" s="29" t="s">
+      <c r="AB155" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AF155" s="29" t="s">
+      <c r="AF155" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AG155" s="29" t="s">
+      <c r="AG155" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AH155" s="29">
-        <v>2</v>
-      </c>
-      <c r="AI155" s="29" t="s">
+      <c r="AH155" s="27">
+        <v>2</v>
+      </c>
+      <c r="AI155" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AJ155" s="29" t="s">
+      <c r="AJ155" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AL155" s="27" t="s">
+      <c r="AL155" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="AN155" s="29" t="s">
+      <c r="AN155" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AO155" s="29" t="s">
+      <c r="AO155" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP155" s="29">
-        <v>1</v>
-      </c>
-      <c r="AQ155" s="29" t="s">
+      <c r="AP155" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ155" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AR155" s="29" t="s">
+      <c r="AR155" s="27" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4000,49 +3994,49 @@
       <c r="O156" s="7">
         <v>1</v>
       </c>
-      <c r="X156" s="29" t="s">
+      <c r="X156" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="Y156" s="29">
+      <c r="Y156" s="27">
         <v>25000</v>
       </c>
-      <c r="Z156" s="29">
-        <v>2</v>
-      </c>
-      <c r="AA156" s="29" t="s">
+      <c r="Z156" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA156" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AB156" s="29" t="s">
+      <c r="AB156" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AF156" s="29" t="s">
+      <c r="AF156" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AG156" s="29" t="s">
+      <c r="AG156" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AH156" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI156" s="29" t="s">
+      <c r="AH156" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI156" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AJ156" s="29" t="s">
+      <c r="AJ156" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AN156" s="29" t="s">
+      <c r="AN156" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AO156" s="29" t="s">
+      <c r="AO156" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP156" s="29">
-        <v>1</v>
-      </c>
-      <c r="AQ156" s="29" t="s">
+      <c r="AP156" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ156" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AR156" s="29" t="s">
+      <c r="AR156" s="27" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4071,49 +4065,49 @@
       <c r="S157" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="X157" s="29" t="s">
+      <c r="X157" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="Y157" s="29">
+      <c r="Y157" s="27">
         <v>32000</v>
       </c>
-      <c r="Z157" s="29">
-        <v>2</v>
-      </c>
-      <c r="AA157" s="29" t="s">
+      <c r="Z157" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA157" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AB157" s="29" t="s">
+      <c r="AB157" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AF157" s="29" t="s">
+      <c r="AF157" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AG157" s="29" t="s">
+      <c r="AG157" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AH157" s="29">
-        <v>1</v>
-      </c>
-      <c r="AI157" s="29" t="s">
+      <c r="AH157" s="27">
+        <v>1</v>
+      </c>
+      <c r="AI157" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AJ157" s="29" t="s">
+      <c r="AJ157" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AN157" s="29" t="s">
+      <c r="AN157" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AO157" s="29" t="s">
+      <c r="AO157" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP157" s="29">
-        <v>2</v>
-      </c>
-      <c r="AQ157" s="29" t="s">
+      <c r="AP157" s="27">
+        <v>2</v>
+      </c>
+      <c r="AQ157" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AR157" s="29" t="s">
+      <c r="AR157" s="27" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4145,49 +4139,49 @@
       <c r="S158" s="12">
         <v>45627</v>
       </c>
-      <c r="X158" s="29" t="s">
+      <c r="X158" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Y158" s="29">
+      <c r="Y158" s="27">
         <v>16000</v>
       </c>
-      <c r="Z158" s="29">
-        <v>2</v>
-      </c>
-      <c r="AA158" s="29" t="s">
+      <c r="Z158" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA158" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AB158" s="29" t="s">
+      <c r="AB158" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AF158" s="29" t="s">
+      <c r="AF158" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AG158" s="29" t="s">
+      <c r="AG158" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AH158" s="29">
-        <v>2</v>
-      </c>
-      <c r="AI158" s="29" t="s">
+      <c r="AH158" s="27">
+        <v>2</v>
+      </c>
+      <c r="AI158" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AJ158" s="29" t="s">
+      <c r="AJ158" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AN158" s="29" t="s">
+      <c r="AN158" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="AO158" s="29" t="s">
+      <c r="AO158" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP158" s="29">
-        <v>2</v>
-      </c>
-      <c r="AQ158" s="29" t="s">
+      <c r="AP158" s="27">
+        <v>2</v>
+      </c>
+      <c r="AQ158" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AR158" s="29" t="s">
+      <c r="AR158" s="27" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4207,34 +4201,34 @@
       <c r="S159" s="12">
         <v>45047</v>
       </c>
-      <c r="X159" s="29" t="s">
+      <c r="X159" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="Y159" s="29">
+      <c r="Y159" s="27">
         <v>20000</v>
       </c>
-      <c r="Z159" s="29">
-        <v>2</v>
-      </c>
-      <c r="AA159" s="29" t="s">
+      <c r="Z159" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA159" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AB159" s="29" t="s">
+      <c r="AB159" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AN159" s="29" t="s">
+      <c r="AN159" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AO159" s="29" t="s">
+      <c r="AO159" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP159" s="29">
-        <v>1</v>
-      </c>
-      <c r="AQ159" s="29" t="s">
+      <c r="AP159" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ159" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AR159" s="29" t="s">
+      <c r="AR159" s="27" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4248,34 +4242,34 @@
       <c r="J160" s="7">
         <v>2</v>
       </c>
-      <c r="X160" s="29" t="s">
+      <c r="X160" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="Y160" s="29">
+      <c r="Y160" s="27">
         <v>40000</v>
       </c>
-      <c r="Z160" s="29">
-        <v>2</v>
-      </c>
-      <c r="AA160" s="29" t="s">
+      <c r="Z160" s="27">
+        <v>2</v>
+      </c>
+      <c r="AA160" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AB160" s="29" t="s">
+      <c r="AB160" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AN160" s="29" t="s">
+      <c r="AN160" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AO160" s="29" t="s">
+      <c r="AO160" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AP160" s="29">
-        <v>2</v>
-      </c>
-      <c r="AQ160" s="29" t="s">
+      <c r="AP160" s="27">
+        <v>2</v>
+      </c>
+      <c r="AQ160" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AR160" s="29" t="s">
+      <c r="AR160" s="27" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4289,19 +4283,19 @@
       <c r="J161" s="7">
         <v>2</v>
       </c>
-      <c r="AN161" s="29" t="s">
+      <c r="AN161" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AO161" s="29" t="s">
+      <c r="AO161" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP161" s="29">
-        <v>1</v>
-      </c>
-      <c r="AQ161" s="29" t="s">
+      <c r="AP161" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ161" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AR161" s="29" t="s">
+      <c r="AR161" s="27" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4315,36 +4309,36 @@
       <c r="J162" s="7">
         <v>2</v>
       </c>
-      <c r="AN162" s="29" t="s">
+      <c r="AN162" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="AO162" s="29" t="s">
+      <c r="AO162" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP162" s="29">
-        <v>1</v>
-      </c>
-      <c r="AQ162" s="29" t="s">
+      <c r="AP162" s="27">
+        <v>1</v>
+      </c>
+      <c r="AQ162" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AR162" s="29" t="s">
+      <c r="AR162" s="27" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="AN163" s="29" t="s">
+      <c r="AN163" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AO163" s="29" t="s">
+      <c r="AO163" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AP163" s="29">
-        <v>2</v>
-      </c>
-      <c r="AQ163" s="29" t="s">
+      <c r="AP163" s="27">
+        <v>2</v>
+      </c>
+      <c r="AQ163" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AR163" s="29" t="s">
+      <c r="AR163" s="27" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4352,36 +4346,36 @@
       <c r="B164" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AD164" s="28" t="s">
+      <c r="AD164" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="AE164" s="28" t="s">
+      <c r="AE164" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AF164" s="28" t="s">
+      <c r="AF164" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AG164" s="28" t="s">
+      <c r="AG164" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="AH164" s="28" t="s">
+      <c r="AH164" s="26" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="165" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="AD165" s="29">
-        <v>1</v>
-      </c>
-      <c r="AE165" s="29" t="s">
+      <c r="AD165" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE165" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AF165" s="29" t="s">
+      <c r="AF165" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AG165" s="29" t="s">
+      <c r="AG165" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AH165" s="30">
+      <c r="AH165" s="28">
         <v>45627</v>
       </c>
     </row>
@@ -4398,22 +4392,22 @@
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
-      <c r="AB166" s="27" t="s">
+      <c r="AB166" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="AD166" s="29">
-        <v>1</v>
-      </c>
-      <c r="AE166" s="29" t="s">
+      <c r="AD166" s="27">
+        <v>1</v>
+      </c>
+      <c r="AE166" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="AF166" s="29" t="s">
+      <c r="AF166" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="AG166" s="29" t="s">
+      <c r="AG166" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AH166" s="30">
+      <c r="AH166" s="28">
         <v>45047</v>
       </c>
     </row>
@@ -4424,19 +4418,19 @@
       <c r="D167" t="s">
         <v>75</v>
       </c>
-      <c r="AD167" s="29">
-        <v>2</v>
-      </c>
-      <c r="AE167" s="29" t="s">
+      <c r="AD167" s="27">
+        <v>2</v>
+      </c>
+      <c r="AE167" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AF167" s="29" t="s">
+      <c r="AF167" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AG167" s="29" t="s">
+      <c r="AG167" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AH167" s="30">
+      <c r="AH167" s="28">
         <v>45627</v>
       </c>
     </row>
@@ -4447,19 +4441,19 @@
       <c r="D168" t="s">
         <v>76</v>
       </c>
-      <c r="AD168" s="29">
-        <v>2</v>
-      </c>
-      <c r="AE168" s="29" t="s">
+      <c r="AD168" s="27">
+        <v>2</v>
+      </c>
+      <c r="AE168" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="AF168" s="29" t="s">
+      <c r="AF168" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="AG168" s="29" t="s">
+      <c r="AG168" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AH168" s="30">
+      <c r="AH168" s="28">
         <v>45047</v>
       </c>
     </row>
@@ -4472,7 +4466,7 @@
       </c>
     </row>
     <row r="171" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A171" s="34">
+      <c r="A171">
         <v>13</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4493,10 +4487,10 @@
       </c>
     </row>
     <row r="175" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="M175" s="16" t="s">
+      <c r="M175" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="Q175" s="16" t="s">
+      <c r="Q175" s="15" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4510,13 +4504,13 @@
       <c r="K176" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M176" s="16" t="s">
+      <c r="M176" s="15" t="s">
         <v>191</v>
       </c>
       <c r="O176" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="Q176" s="16" t="s">
+      <c r="Q176" s="15" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4527,23 +4521,23 @@
       <c r="F177" t="s">
         <v>83</v>
       </c>
-      <c r="M177" s="16" t="s">
+      <c r="M177" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="Q177" s="16" t="s">
+      <c r="Q177" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="M178" s="16" t="s">
+      <c r="M178" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="Q178" s="16" t="s">
+      <c r="Q178" s="15" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="34">
+      <c r="A179">
         <v>14</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -4571,89 +4565,89 @@
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I186" s="28" t="s">
+      <c r="I186" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="J186" s="28" t="s">
+      <c r="J186" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="K186" s="28" t="s">
+      <c r="K186" s="26" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I187" s="29" t="s">
+      <c r="I187" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="J187" s="29" t="s">
+      <c r="J187" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K187" s="29">
+      <c r="K187" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I188" s="29" t="s">
+      <c r="I188" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J188" s="29" t="s">
+      <c r="J188" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K188" s="29">
+      <c r="K188" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I189" s="29" t="s">
+      <c r="I189" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="J189" s="29" t="s">
+      <c r="J189" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="K189" s="29">
+      <c r="K189" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I190" s="29" t="s">
+      <c r="I190" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="J190" s="29" t="s">
+      <c r="J190" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K190" s="29">
+      <c r="K190" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I191" s="29" t="s">
+      <c r="I191" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J191" s="29" t="s">
+      <c r="J191" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K191" s="29">
+      <c r="K191" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="I192" s="29" t="s">
+      <c r="I192" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J192" s="29" t="s">
+      <c r="J192" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="K192" s="29">
+      <c r="K192" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I194" s="27" t="s">
+      <c r="I194" s="25" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="34">
+      <c r="A197">
         <v>15</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -4661,22 +4655,22 @@
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I199" s="27" t="s">
+      <c r="I199" s="25" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I200" s="27" t="s">
+      <c r="I200" s="25" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I201" s="27" t="s">
+      <c r="I201" s="25" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A203" s="34">
+      <c r="A203">
         <v>16</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -4684,17 +4678,17 @@
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I205" s="27" t="s">
+      <c r="I205" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I206" s="27" t="s">
+      <c r="I206" s="25" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A209" s="34">
+      <c r="A209">
         <v>17</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -4702,7 +4696,7 @@
       </c>
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A211" s="34">
+      <c r="A211">
         <v>18</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -4710,12 +4704,12 @@
       </c>
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B212" s="21" t="s">
+      <c r="B212" s="19" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A214" s="34">
+      <c r="A214">
         <v>19</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -4723,94 +4717,94 @@
       </c>
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I216" s="31" t="s">
+      <c r="I216" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="J216" s="31" t="s">
+      <c r="J216" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K216" s="31" t="s">
+      <c r="K216" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="L216" s="31" t="s">
+      <c r="L216" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="M216" s="31" t="s">
+      <c r="M216" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N216" s="31" t="s">
+      <c r="N216" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="O216" s="31" t="s">
+      <c r="O216" s="29" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I217" s="31" t="s">
+      <c r="I217" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J217" s="31">
+      <c r="J217" s="29">
         <v>15000</v>
       </c>
-      <c r="K217" s="31">
-        <v>1</v>
-      </c>
-      <c r="L217" s="31" t="s">
+      <c r="K217" s="29">
+        <v>1</v>
+      </c>
+      <c r="L217" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M217" s="31" t="s">
+      <c r="M217" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="N217" s="31" t="s">
+      <c r="N217" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O217" s="31" t="s">
+      <c r="O217" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I218" s="31" t="s">
+      <c r="I218" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="J218" s="31">
+      <c r="J218" s="29">
         <v>30000</v>
       </c>
-      <c r="K218" s="31">
-        <v>1</v>
-      </c>
-      <c r="L218" s="31" t="s">
+      <c r="K218" s="29">
+        <v>1</v>
+      </c>
+      <c r="L218" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M218" s="31" t="s">
+      <c r="M218" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="N218" s="32">
+      <c r="N218" s="30">
         <v>45047</v>
       </c>
-      <c r="O218" s="31" t="s">
+      <c r="O218" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I219" s="31" t="s">
+      <c r="I219" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="J219" s="31">
+      <c r="J219" s="29">
         <v>60000</v>
       </c>
-      <c r="K219" s="31">
-        <v>1</v>
-      </c>
-      <c r="L219" s="31" t="s">
+      <c r="K219" s="29">
+        <v>1</v>
+      </c>
+      <c r="L219" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M219" s="31" t="s">
+      <c r="M219" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="N219" s="31" t="s">
+      <c r="N219" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O219" s="31" t="s">
+      <c r="O219" s="29" t="s">
         <v>55</v>
       </c>
       <c r="S219" s="5" t="s">
@@ -4818,186 +4812,186 @@
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I220" s="31" t="s">
+      <c r="I220" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J220" s="31">
+      <c r="J220" s="29">
         <v>17000</v>
       </c>
-      <c r="K220" s="31">
-        <v>1</v>
-      </c>
-      <c r="L220" s="31" t="s">
+      <c r="K220" s="29">
+        <v>1</v>
+      </c>
+      <c r="L220" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M220" s="31" t="s">
+      <c r="M220" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="N220" s="32">
+      <c r="N220" s="30">
         <v>45047</v>
       </c>
-      <c r="O220" s="31" t="s">
+      <c r="O220" s="29" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I221" s="31" t="s">
+      <c r="I221" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="J221" s="31">
+      <c r="J221" s="29">
         <v>17000</v>
       </c>
-      <c r="K221" s="31">
-        <v>1</v>
-      </c>
-      <c r="L221" s="31" t="s">
+      <c r="K221" s="29">
+        <v>1</v>
+      </c>
+      <c r="L221" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M221" s="31" t="s">
+      <c r="M221" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="N221" s="32">
+      <c r="N221" s="30">
         <v>45627</v>
       </c>
-      <c r="O221" s="31" t="s">
+      <c r="O221" s="29" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I222" s="31" t="s">
+      <c r="I222" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="J222" s="31">
+      <c r="J222" s="29">
         <v>23000</v>
       </c>
-      <c r="K222" s="31">
-        <v>1</v>
-      </c>
-      <c r="L222" s="31" t="s">
+      <c r="K222" s="29">
+        <v>1</v>
+      </c>
+      <c r="L222" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M222" s="31" t="s">
+      <c r="M222" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="N222" s="31" t="s">
+      <c r="N222" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O222" s="31" t="s">
+      <c r="O222" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I223" s="31" t="s">
+      <c r="I223" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="J223" s="31">
+      <c r="J223" s="29">
         <v>25000</v>
       </c>
-      <c r="K223" s="31">
-        <v>2</v>
-      </c>
-      <c r="L223" s="31" t="s">
+      <c r="K223" s="29">
+        <v>2</v>
+      </c>
+      <c r="L223" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M223" s="31" t="s">
+      <c r="M223" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="N223" s="31" t="s">
+      <c r="N223" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O223" s="31" t="s">
+      <c r="O223" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I224" s="31" t="s">
+      <c r="I224" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="J224" s="31">
+      <c r="J224" s="29">
         <v>32000</v>
       </c>
-      <c r="K224" s="31">
-        <v>2</v>
-      </c>
-      <c r="L224" s="31" t="s">
+      <c r="K224" s="29">
+        <v>2</v>
+      </c>
+      <c r="L224" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M224" s="31" t="s">
+      <c r="M224" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="N224" s="31" t="s">
+      <c r="N224" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="O224" s="31" t="s">
+      <c r="O224" s="29" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="225" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I225" s="31" t="s">
+      <c r="I225" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="J225" s="31">
+      <c r="J225" s="29">
         <v>16000</v>
       </c>
-      <c r="K225" s="31">
-        <v>2</v>
-      </c>
-      <c r="L225" s="31" t="s">
+      <c r="K225" s="29">
+        <v>2</v>
+      </c>
+      <c r="L225" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M225" s="31" t="s">
+      <c r="M225" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="N225" s="31" t="s">
+      <c r="N225" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O225" s="32">
+      <c r="O225" s="30">
         <v>45627</v>
       </c>
     </row>
     <row r="226" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I226" s="31" t="s">
+      <c r="I226" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="J226" s="31">
+      <c r="J226" s="29">
         <v>20000</v>
       </c>
-      <c r="K226" s="31">
-        <v>2</v>
-      </c>
-      <c r="L226" s="31" t="s">
+      <c r="K226" s="29">
+        <v>2</v>
+      </c>
+      <c r="L226" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M226" s="31" t="s">
+      <c r="M226" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="N226" s="31" t="s">
+      <c r="N226" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="O226" s="32">
+      <c r="O226" s="30">
         <v>45627</v>
       </c>
     </row>
     <row r="227" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I227" s="31" t="s">
+      <c r="I227" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="J227" s="31">
+      <c r="J227" s="29">
         <v>40000</v>
       </c>
-      <c r="K227" s="31">
-        <v>2</v>
-      </c>
-      <c r="L227" s="31" t="s">
+      <c r="K227" s="29">
+        <v>2</v>
+      </c>
+      <c r="L227" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M227" s="31" t="s">
+      <c r="M227" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="N227" s="31" t="s">
+      <c r="N227" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="O227" s="32">
+      <c r="O227" s="30">
         <v>45413</v>
       </c>
     </row>
